--- a/Documents/download_file/val_download_list.xlsx
+++ b/Documents/download_file/val_download_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="668">
   <si>
     <t>SubjectID</t>
   </si>
@@ -88,6 +88,9 @@
     <t>208-018</t>
   </si>
   <si>
+    <t>209-011</t>
+  </si>
+  <si>
     <t>209-013</t>
   </si>
   <si>
@@ -103,6 +106,18 @@
     <t>209-018</t>
   </si>
   <si>
+    <t>209-019</t>
+  </si>
+  <si>
+    <t>210-003</t>
+  </si>
+  <si>
+    <t>210-004</t>
+  </si>
+  <si>
+    <t>210-005</t>
+  </si>
+  <si>
     <t>211-002</t>
   </si>
   <si>
@@ -139,6 +154,12 @@
     <t>SV_2_Date</t>
   </si>
   <si>
+    <t>SV_9_Date</t>
+  </si>
+  <si>
+    <t>SV_10_Date</t>
+  </si>
+  <si>
     <t>18-04-2023</t>
   </si>
   <si>
@@ -166,6 +187,9 @@
     <t>19-07-2023</t>
   </si>
   <si>
+    <t>26-06-2023</t>
+  </si>
+  <si>
     <t>11-08-2023</t>
   </si>
   <si>
@@ -178,6 +202,18 @@
     <t>29-08-2023</t>
   </si>
   <si>
+    <t>01-06-2023</t>
+  </si>
+  <si>
+    <t>25-05-2023</t>
+  </si>
+  <si>
+    <t>27-07-2023</t>
+  </si>
+  <si>
+    <t>02-08-2023</t>
+  </si>
+  <si>
     <t>21-07-2023</t>
   </si>
   <si>
@@ -211,6 +247,9 @@
     <t>18-07-2023</t>
   </si>
   <si>
+    <t>25-06-2023</t>
+  </si>
+  <si>
     <t>10-08-2023</t>
   </si>
   <si>
@@ -223,12 +262,18 @@
     <t>28-08-2023</t>
   </si>
   <si>
+    <t>31-05-2023</t>
+  </si>
+  <si>
+    <t>24-05-2023</t>
+  </si>
+  <si>
+    <t>26-07-2023</t>
+  </si>
+  <si>
     <t>20-07-2023</t>
   </si>
   <si>
-    <t>27-07-2023</t>
-  </si>
-  <si>
     <t>08-08-2023</t>
   </si>
   <si>
@@ -421,6 +466,75 @@
     <t>6e3783fd-123b-4b36-aa8d-a87f09278d2d</t>
   </si>
   <si>
+    <t>3ff06796-0aa3-413a-8aee-f5da6b8d2545</t>
+  </si>
+  <si>
+    <t>27a49aef-05c9-431e-a858-b65da359bae1</t>
+  </si>
+  <si>
+    <t>772140be-6547-4754-8270-8a3bcdefdf4e</t>
+  </si>
+  <si>
+    <t>ca2bbf09-87e8-4adb-a9c2-8bd19b4fbe2f</t>
+  </si>
+  <si>
+    <t>de969576-4062-4041-a7cb-eebe56bdbe2a</t>
+  </si>
+  <si>
+    <t>387ed5a5-ae5d-43ad-b4e4-a1f1bcdccf36</t>
+  </si>
+  <si>
+    <t>537c9953-4140-4adc-a8b5-7d2473418097</t>
+  </si>
+  <si>
+    <t>1c60c625-6b8e-4149-b022-b10f3bc6bef1</t>
+  </si>
+  <si>
+    <t>4f2f452a-2ac5-424f-bc4a-51ff9d2acbe0</t>
+  </si>
+  <si>
+    <t>82ae455a-71ec-4740-92af-fed879b50a44</t>
+  </si>
+  <si>
+    <t>98af093f-1c30-4a1b-ba59-7b3b9dc0d9c1</t>
+  </si>
+  <si>
+    <t>7bbfca01-82a7-4a8f-95d8-588d9e5624e7</t>
+  </si>
+  <si>
+    <t>19dde2db-7a0f-41b5-9186-ec5dc13a78c8</t>
+  </si>
+  <si>
+    <t>17281764-8cad-48ec-92d3-bce8824b3140</t>
+  </si>
+  <si>
+    <t>5473c5b4-82b5-4e66-bb15-ddf038100040</t>
+  </si>
+  <si>
+    <t>76749fbf-a362-40c4-a55c-ae86788280d0</t>
+  </si>
+  <si>
+    <t>0c03dab0-3ab1-4a67-94d3-5aab61095851</t>
+  </si>
+  <si>
+    <t>39eb3c6f-4c5c-40e5-bd40-6f55830264ee</t>
+  </si>
+  <si>
+    <t>6c736d9b-ac46-4139-879d-502112e41843</t>
+  </si>
+  <si>
+    <t>891ca277-0671-44d4-aa0a-0f135adf8c48</t>
+  </si>
+  <si>
+    <t>0143b01d-c750-46f5-83d1-52eb4e54a91b</t>
+  </si>
+  <si>
+    <t>bb057fe5-13ca-48af-ac14-107a1a3fd404</t>
+  </si>
+  <si>
+    <t>3338ae75-eb96-4319-a3b1-2ef00d989295</t>
+  </si>
+  <si>
     <t>ffd9c072-56d9-45bb-bf5f-522125ff88aa</t>
   </si>
   <si>
@@ -508,6 +622,84 @@
     <t>81d73508-4f68-4bf7-ad90-cae0216a0035</t>
   </si>
   <si>
+    <t>676774b5-2ad0-4fd2-ad7e-a4f1f10256fc</t>
+  </si>
+  <si>
+    <t>1cf67396-5dc8-43c2-873b-6a5c42b4d056</t>
+  </si>
+  <si>
+    <t>d47f0aaf-0c93-4d47-ad62-0e1ecf62de98</t>
+  </si>
+  <si>
+    <t>96ebe127-59ee-4a3b-8961-b7dfd14854b6</t>
+  </si>
+  <si>
+    <t>40ffed58-4013-4e4c-b065-789f86f72ba1</t>
+  </si>
+  <si>
+    <t>ada512aa-f53f-414a-9416-7603d58db0e8</t>
+  </si>
+  <si>
+    <t>a01846f4-8336-41ce-b697-dcfc51184b31</t>
+  </si>
+  <si>
+    <t>e9551e0d-c4bc-414c-b4af-c8b1def2812c</t>
+  </si>
+  <si>
+    <t>37a6ed33-e5a7-448c-a0db-f191628e28d6</t>
+  </si>
+  <si>
+    <t>c7948d5e-253e-4006-809a-1460762320ef</t>
+  </si>
+  <si>
+    <t>70bb44e7-5fa7-43ba-84b3-793e688f5b9c</t>
+  </si>
+  <si>
+    <t>504e4fd6-795b-429a-ac10-1ff9d2ca634c</t>
+  </si>
+  <si>
+    <t>e6a9e408-15a8-4e6f-917a-8b7438ba2502</t>
+  </si>
+  <si>
+    <t>106ccf9f-8f6e-48b3-8796-b355ff581b51</t>
+  </si>
+  <si>
+    <t>f3318584-16e5-4bf6-a327-05ccc85ac0b6</t>
+  </si>
+  <si>
+    <t>162bcb79-88b9-4a76-ab6b-893c2ebe7321</t>
+  </si>
+  <si>
+    <t>639c9f7f-62de-4207-b0fb-5db4842e0b07</t>
+  </si>
+  <si>
+    <t>5ed5eaea-faf0-498e-9b2a-402b4b53a2a8</t>
+  </si>
+  <si>
+    <t>e6326f95-be51-4496-a700-5434d08e32c6</t>
+  </si>
+  <si>
+    <t>0a0ed6c2-3e50-4b9f-81ec-c78ff7f8674b</t>
+  </si>
+  <si>
+    <t>517c5942-a617-4ef5-8bd3-2153e989682b</t>
+  </si>
+  <si>
+    <t>71468790-3cd2-4f21-a23e-5a671abdff3f</t>
+  </si>
+  <si>
+    <t>f8df94d1-f898-429f-b5fa-53700203dc5e</t>
+  </si>
+  <si>
+    <t>0e33fc95-990f-4250-8d43-729696b0c77a</t>
+  </si>
+  <si>
+    <t>59d123f5-8392-4ecd-a66a-d65044967512</t>
+  </si>
+  <si>
+    <t>a5ef8ab0-23a9-4907-9ef7-a923ffcf1465</t>
+  </si>
+  <si>
     <t>e6e3503d-2555-4f3a-9fae-cadd1addc933</t>
   </si>
   <si>
@@ -544,6 +736,18 @@
     <t>854f4342-fa47-4667-8fa1-64d8fd909c12</t>
   </si>
   <si>
+    <t>7ce3d214-b93a-41ba-a75e-a1d47df20c53</t>
+  </si>
+  <si>
+    <t>6f6de564-afc0-42e8-9a96-2a7f6582d308</t>
+  </si>
+  <si>
+    <t>5f82a7c3-f9aa-439e-a0f8-466d600971b6</t>
+  </si>
+  <si>
+    <t>0e051eaa-f603-458f-b800-1b71cd5dbd4f</t>
+  </si>
+  <si>
     <t>954991ae-a971-4569-98c6-ca5b127fb439</t>
   </si>
   <si>
@@ -766,6 +970,75 @@
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_208-018\Left_Plantar_1\ImageColl_12</t>
   </si>
   <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_43</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_44</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_45</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_46</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_47</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_48</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_49</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_50</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_51</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_52</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_53</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_54</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_55</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_56</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_57</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_58</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_59</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_60</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_61</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_62</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_63</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_64</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-011\Left_Plantar_1\ImageColl_65</t>
+  </si>
+  <si>
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-013\Right_Plantar_1\ImageColl_16</t>
   </si>
   <si>
@@ -853,6 +1126,84 @@
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-018\Right_Plantar_1\ImageColl_4</t>
   </si>
   <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-019\Left_Plantar_1\ImageColl_5</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-019\Left_Plantar_1\ImageColl_6</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-019\Left_Plantar_1\ImageColl_7</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_209-019\Left_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_003\Right_Plantar_1\ImageColl_29</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_003\Right_Plantar_1\ImageColl_30</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_003\Right_Plantar_1\ImageColl_31</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_003\Right_Plantar_1\ImageColl_32</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_20</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_21</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_22</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_23</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_24</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_25</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_26</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_27</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Right_Plantar_1\ImageColl_28</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_5</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_6</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_7</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_005\Left_Plantar_1\ImageColl_9</t>
+  </si>
+  <si>
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-02\Right_Plantar_1\ImageColl_1</t>
   </si>
   <si>
@@ -889,6 +1240,18 @@
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-04\Right_Plantar_1\ImageColl_7</t>
   </si>
   <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-04\Right_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-04\Right_Plantar_1\ImageColl_9</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-04\Right_Plantar_1\ImageColl_10</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-04\Right_Plantar_1\ImageColl_11</t>
+  </si>
+  <si>
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_211-05\Right_Plantar_2\ImageColl_1</t>
   </si>
   <si>
@@ -1093,6 +1456,75 @@
     <t>{'PseudoColor/PseudoColor_6e3783fd-123b-4b36-aa8d-a87f09278d2d.tif'}</t>
   </si>
   <si>
+    <t>{'PseudoColor/PseudoColor_3ff06796-0aa3-413a-8aee-f5da6b8d2545.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_27a49aef-05c9-431e-a858-b65da359bae1.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_772140be-6547-4754-8270-8a3bcdefdf4e.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_ca2bbf09-87e8-4adb-a9c2-8bd19b4fbe2f.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_de969576-4062-4041-a7cb-eebe56bdbe2a.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_387ed5a5-ae5d-43ad-b4e4-a1f1bcdccf36.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_537c9953-4140-4adc-a8b5-7d2473418097.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_1c60c625-6b8e-4149-b022-b10f3bc6bef1.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_4f2f452a-2ac5-424f-bc4a-51ff9d2acbe0.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_82ae455a-71ec-4740-92af-fed879b50a44.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_98af093f-1c30-4a1b-ba59-7b3b9dc0d9c1.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_7bbfca01-82a7-4a8f-95d8-588d9e5624e7.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_19dde2db-7a0f-41b5-9186-ec5dc13a78c8.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_17281764-8cad-48ec-92d3-bce8824b3140.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_5473c5b4-82b5-4e66-bb15-ddf038100040.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_76749fbf-a362-40c4-a55c-ae86788280d0.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_0c03dab0-3ab1-4a67-94d3-5aab61095851.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_39eb3c6f-4c5c-40e5-bd40-6f55830264ee.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_6c736d9b-ac46-4139-879d-502112e41843.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_891ca277-0671-44d4-aa0a-0f135adf8c48.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_0143b01d-c750-46f5-83d1-52eb4e54a91b.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_bb057fe5-13ca-48af-ac14-107a1a3fd404.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_3338ae75-eb96-4319-a3b1-2ef00d989295.tif'}</t>
+  </si>
+  <si>
     <t>{'PseudoColor/PseudoColor_ffd9c072-56d9-45bb-bf5f-522125ff88aa.tif'}</t>
   </si>
   <si>
@@ -1180,6 +1612,57 @@
     <t>{'PseudoColor/PseudoColor_81d73508-4f68-4bf7-ad90-cae0216a0035.tif'}</t>
   </si>
   <si>
+    <t>{'PseudoColor/PseudoColor_676774b5-2ad0-4fd2-ad7e-a4f1f10256fc.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_1cf67396-5dc8-43c2-873b-6a5c42b4d056.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_d47f0aaf-0c93-4d47-ad62-0e1ecf62de98.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_96ebe127-59ee-4a3b-8961-b7dfd14854b6.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_40ffed58-4013-4e4c-b065-789f86f72ba1.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_ada512aa-f53f-414a-9416-7603d58db0e8.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_a01846f4-8336-41ce-b697-dcfc51184b31.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_e9551e0d-c4bc-414c-b4af-c8b1def2812c.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_37a6ed33-e5a7-448c-a0db-f191628e28d6.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_c7948d5e-253e-4006-809a-1460762320ef.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_70bb44e7-5fa7-43ba-84b3-793e688f5b9c.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_504e4fd6-795b-429a-ac10-1ff9d2ca634c.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_e6a9e408-15a8-4e6f-917a-8b7438ba2502.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_106ccf9f-8f6e-48b3-8796-b355ff581b51.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_f3318584-16e5-4bf6-a327-05ccc85ac0b6.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_162bcb79-88b9-4a76-ab6b-893c2ebe7321.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_639c9f7f-62de-4207-b0fb-5db4842e0b07.tif'}</t>
+  </si>
+  <si>
     <t>{'Assessing/Assessing_ded9ccb5-ac81-410d-a7fb-344d67d41fc6_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
@@ -1345,6 +1828,75 @@
     <t>{'Assessing/Assessing_6e3783fd-123b-4b36-aa8d-a87f09278d2d_DFU_Patient_208-018_Left_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
+    <t>{'Assessing/Assessing_3ff06796-0aa3-413a-8aee-f5da6b8d2545.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_27a49aef-05c9-431e-a858-b65da359bae1_DFU_Patient_209-011_Left_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_27a49aef-05c9-431e-a858-b65da359bae1.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_772140be-6547-4754-8270-8a3bcdefdf4e.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_ca2bbf09-87e8-4adb-a9c2-8bd19b4fbe2f.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_de969576-4062-4041-a7cb-eebe56bdbe2a.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_387ed5a5-ae5d-43ad-b4e4-a1f1bcdccf36.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_537c9953-4140-4adc-a8b5-7d2473418097.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_1c60c625-6b8e-4149-b022-b10f3bc6bef1.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_4f2f452a-2ac5-424f-bc4a-51ff9d2acbe0.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_82ae455a-71ec-4740-92af-fed879b50a44.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_98af093f-1c30-4a1b-ba59-7b3b9dc0d9c1.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_7bbfca01-82a7-4a8f-95d8-588d9e5624e7.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_19dde2db-7a0f-41b5-9186-ec5dc13a78c8.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_17281764-8cad-48ec-92d3-bce8824b3140.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_5473c5b4-82b5-4e66-bb15-ddf038100040.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_76749fbf-a362-40c4-a55c-ae86788280d0_DFU_Patient_209-011_Left_Plantar_1_HI_Assessing.png', 'Assessing/Assessing_76749fbf-a362-40c4-a55c-ae86788280d0.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_0c03dab0-3ab1-4a67-94d3-5aab61095851.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_39eb3c6f-4c5c-40e5-bd40-6f55830264ee.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_6c736d9b-ac46-4139-879d-502112e41843.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_891ca277-0671-44d4-aa0a-0f135adf8c48.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_0143b01d-c750-46f5-83d1-52eb4e54a91b.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_bb057fe5-13ca-48af-ac14-107a1a3fd404.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_3338ae75-eb96-4319-a3b1-2ef00d989295.tif'}</t>
+  </si>
+  <si>
     <t>{'Assessing/Assessing_ffd9c072-56d9-45bb-bf5f-522125ff88aa_DFU_Patient_209-013_Right_Plantar_1_HI_Assessing.png'}</t>
   </si>
   <si>
@@ -1430,6 +1982,36 @@
   </si>
   <si>
     <t>{'Assessing/Assessing_81d73508-4f68-4bf7-ad90-cae0216a0035_DFU_Patient_209-018_Right_Plantar_1_MW_Assessing.png'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_676774b5-2ad0-4fd2-ad7e-a4f1f10256fc_DFU_Patient_209-019_Left_Plantar_1_SF_Assessing.png'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_1cf67396-5dc8-43c2-873b-6a5c42b4d056_DFU_Patient_209-019_Left_Plantar_1_SF_Assessing.png'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_d47f0aaf-0c93-4d47-ad62-0e1ecf62de98_DFU_Patient_209-019_Left_Plantar_1_SF_Assessing.png'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_96ebe127-59ee-4a3b-8961-b7dfd14854b6_DFU_Patient_209-019_Left_Plantar_1_SF_Assessing.png'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_40ffed58-4013-4e4c-b065-789f86f72ba1.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_a01846f4-8336-41ce-b697-dcfc51184b31.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_37a6ed33-e5a7-448c-a0db-f191628e28d6.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_70bb44e7-5fa7-43ba-84b3-793e688f5b9c.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502_DFU_Patient_004_Right_Plantar_1_VZ_Assessing.png', 'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_f3318584-16e5-4bf6-a327-05ccc85ac0b6.tif'}</t>
   </si>
   <si>
     <t>acquired</t>
@@ -1793,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,22 +2433,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1877,22 +2459,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1903,28 +2485,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="J4" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="O4" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1935,28 +2517,28 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="O5" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1967,31 +2549,31 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="K6" t="s">
-        <v>388</v>
+        <v>549</v>
       </c>
       <c r="O6" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2002,31 +2584,31 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="K7" t="s">
-        <v>389</v>
+        <v>550</v>
       </c>
       <c r="O7" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2037,31 +2619,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="K8" t="s">
-        <v>390</v>
+        <v>551</v>
       </c>
       <c r="O8" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2072,31 +2654,31 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="J9" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="K9" t="s">
-        <v>391</v>
+        <v>552</v>
       </c>
       <c r="O9" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2107,28 +2689,28 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="J10" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="O10" t="s">
-        <v>473</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2139,28 +2721,28 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="J11" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="O11" t="s">
-        <v>473</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2171,31 +2753,31 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="K12" t="s">
-        <v>392</v>
+        <v>553</v>
       </c>
       <c r="O12" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2206,31 +2788,31 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="K13" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="O13" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2241,31 +2823,31 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="J14" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="K14" t="s">
-        <v>394</v>
+        <v>555</v>
       </c>
       <c r="O14" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2276,31 +2858,31 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="J15" t="s">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="K15" t="s">
-        <v>395</v>
+        <v>556</v>
       </c>
       <c r="O15" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2311,31 +2893,31 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="J16" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="K16" t="s">
-        <v>396</v>
+        <v>557</v>
       </c>
       <c r="O16" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2346,31 +2928,31 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="J17" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="K17" t="s">
-        <v>397</v>
+        <v>558</v>
       </c>
       <c r="O17" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2381,31 +2963,31 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="J18" t="s">
-        <v>312</v>
+        <v>433</v>
       </c>
       <c r="K18" t="s">
-        <v>398</v>
+        <v>559</v>
       </c>
       <c r="O18" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2416,28 +2998,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="J19" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="O19" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2448,28 +3030,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="J20" t="s">
-        <v>314</v>
+        <v>435</v>
       </c>
       <c r="O20" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2480,31 +3062,31 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="K21" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="O21" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2515,31 +3097,31 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="J22" t="s">
-        <v>316</v>
+        <v>437</v>
       </c>
       <c r="K22" t="s">
-        <v>400</v>
+        <v>561</v>
       </c>
       <c r="O22" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2550,31 +3132,31 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="J23" t="s">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="K23" t="s">
-        <v>401</v>
+        <v>562</v>
       </c>
       <c r="O23" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2585,31 +3167,31 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="J24" t="s">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="K24" t="s">
-        <v>402</v>
+        <v>563</v>
       </c>
       <c r="O24" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2620,31 +3202,31 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="K25" t="s">
-        <v>403</v>
+        <v>564</v>
       </c>
       <c r="O25" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2655,31 +3237,31 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>320</v>
+        <v>441</v>
       </c>
       <c r="K26" t="s">
-        <v>404</v>
+        <v>565</v>
       </c>
       <c r="O26" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2690,31 +3272,31 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="K27" t="s">
-        <v>405</v>
+        <v>566</v>
       </c>
       <c r="O27" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2725,31 +3307,31 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="J28" t="s">
-        <v>322</v>
+        <v>443</v>
       </c>
       <c r="K28" t="s">
-        <v>406</v>
+        <v>567</v>
       </c>
       <c r="O28" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2760,31 +3342,31 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="K29" t="s">
-        <v>407</v>
+        <v>568</v>
       </c>
       <c r="O29" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2795,31 +3377,31 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>324</v>
+        <v>445</v>
       </c>
       <c r="K30" t="s">
-        <v>408</v>
+        <v>569</v>
       </c>
       <c r="O30" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2830,31 +3412,31 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="K31" t="s">
-        <v>409</v>
+        <v>570</v>
       </c>
       <c r="O31" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2865,31 +3447,31 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="K32" t="s">
-        <v>410</v>
+        <v>571</v>
       </c>
       <c r="O32" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2900,31 +3482,31 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="K33" t="s">
-        <v>411</v>
+        <v>572</v>
       </c>
       <c r="O33" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2935,31 +3517,31 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="K34" t="s">
-        <v>412</v>
+        <v>573</v>
       </c>
       <c r="O34" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2970,31 +3552,31 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="K35" t="s">
-        <v>413</v>
+        <v>574</v>
       </c>
       <c r="O35" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3005,31 +3587,31 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I36" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>451</v>
       </c>
       <c r="K36" t="s">
-        <v>414</v>
+        <v>575</v>
       </c>
       <c r="O36" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3040,31 +3622,31 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I37" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="K37" t="s">
-        <v>415</v>
+        <v>576</v>
       </c>
       <c r="O37" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3075,31 +3657,31 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I38" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
       <c r="K38" t="s">
-        <v>416</v>
+        <v>577</v>
       </c>
       <c r="O38" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3110,31 +3692,31 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="K39" t="s">
-        <v>417</v>
+        <v>578</v>
       </c>
       <c r="O39" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3145,31 +3727,31 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="K40" t="s">
-        <v>418</v>
+        <v>579</v>
       </c>
       <c r="O40" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3180,31 +3762,31 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="K41" t="s">
-        <v>419</v>
+        <v>580</v>
       </c>
       <c r="O41" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3215,31 +3797,31 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="J42" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
       <c r="K42" t="s">
-        <v>420</v>
+        <v>581</v>
       </c>
       <c r="O42" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3250,31 +3832,31 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
       <c r="K43" t="s">
-        <v>421</v>
+        <v>582</v>
       </c>
       <c r="O43" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3285,31 +3867,31 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I44" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="J44" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="K44" t="s">
-        <v>422</v>
+        <v>583</v>
       </c>
       <c r="O44" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3320,31 +3902,31 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I45" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="K45" t="s">
-        <v>423</v>
+        <v>584</v>
       </c>
       <c r="O45" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3355,31 +3937,31 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="J46" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="K46" t="s">
-        <v>424</v>
+        <v>585</v>
       </c>
       <c r="O46" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3390,31 +3972,31 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I47" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
       <c r="K47" t="s">
-        <v>425</v>
+        <v>586</v>
       </c>
       <c r="O47" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3425,31 +4007,31 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I48" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>587</v>
       </c>
       <c r="O48" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3460,31 +4042,31 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I49" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>464</v>
       </c>
       <c r="K49" t="s">
-        <v>427</v>
+        <v>588</v>
       </c>
       <c r="O49" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3495,31 +4077,31 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G50" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="J50" t="s">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="K50" t="s">
-        <v>428</v>
+        <v>589</v>
       </c>
       <c r="O50" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3530,31 +4112,31 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I51" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="J51" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="K51" t="s">
-        <v>429</v>
+        <v>590</v>
       </c>
       <c r="O51" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3565,31 +4147,31 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I52" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="J52" t="s">
-        <v>346</v>
+        <v>467</v>
       </c>
       <c r="K52" t="s">
-        <v>430</v>
+        <v>591</v>
       </c>
       <c r="O52" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3600,31 +4182,31 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I53" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="J53" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="K53" t="s">
-        <v>431</v>
+        <v>592</v>
       </c>
       <c r="O53" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3635,31 +4217,31 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I54" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="J54" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="K54" t="s">
-        <v>432</v>
+        <v>593</v>
       </c>
       <c r="O54" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3670,31 +4252,31 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I55" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="J55" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>594</v>
       </c>
       <c r="O55" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3705,31 +4287,31 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G56" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I56" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="J56" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s">
-        <v>434</v>
+        <v>595</v>
       </c>
       <c r="O56" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3740,31 +4322,31 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I57" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="J57" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
       <c r="K57" t="s">
-        <v>435</v>
+        <v>596</v>
       </c>
       <c r="O57" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3775,31 +4357,31 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I58" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="J58" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="K58" t="s">
-        <v>436</v>
+        <v>597</v>
       </c>
       <c r="O58" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3810,31 +4392,31 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I59" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="J59" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="K59" t="s">
-        <v>437</v>
+        <v>598</v>
       </c>
       <c r="O59" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3845,31 +4427,31 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G60" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="J60" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="K60" t="s">
-        <v>438</v>
+        <v>599</v>
       </c>
       <c r="O60" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3880,31 +4462,31 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G61" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I61" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="J61" t="s">
-        <v>355</v>
+        <v>476</v>
       </c>
       <c r="K61" t="s">
-        <v>439</v>
+        <v>600</v>
       </c>
       <c r="O61" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3915,31 +4497,31 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G62" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I62" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="J62" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
       <c r="K62" t="s">
-        <v>440</v>
+        <v>601</v>
       </c>
       <c r="O62" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3950,31 +4532,31 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I63" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="J63" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="K63" t="s">
-        <v>441</v>
+        <v>602</v>
       </c>
       <c r="O63" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3985,1540 +4567,3257 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I64" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="J64" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="K64" t="s">
-        <v>442</v>
+        <v>603</v>
       </c>
       <c r="O64" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1">
-        <v>956</v>
+        <v>913</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I65" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="J65" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
       <c r="K65" t="s">
-        <v>443</v>
+        <v>604</v>
       </c>
       <c r="O65" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1">
-        <v>957</v>
+        <v>914</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I66" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="J66" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
       <c r="K66" t="s">
-        <v>444</v>
+        <v>605</v>
       </c>
       <c r="O66" t="s">
-        <v>473</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1">
-        <v>958</v>
+        <v>915</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G67" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I67" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="J67" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
       <c r="K67" t="s">
-        <v>445</v>
+        <v>606</v>
       </c>
       <c r="O67" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1">
-        <v>959</v>
+        <v>916</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G68" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I68" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="J68" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="K68" t="s">
-        <v>446</v>
+        <v>607</v>
       </c>
       <c r="O68" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1">
-        <v>960</v>
+        <v>917</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G69" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I69" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="J69" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="K69" t="s">
-        <v>447</v>
+        <v>608</v>
       </c>
       <c r="O69" t="s">
-        <v>473</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1">
-        <v>961</v>
+        <v>918</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G70" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I70" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="J70" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
       <c r="K70" t="s">
-        <v>448</v>
+        <v>609</v>
       </c>
       <c r="O70" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1">
-        <v>962</v>
+        <v>919</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I71" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="J71" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="K71" t="s">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="O71" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1">
-        <v>963</v>
+        <v>920</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G72" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I72" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="J72" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="K72" t="s">
-        <v>450</v>
+        <v>611</v>
       </c>
       <c r="O72" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1">
-        <v>965</v>
+        <v>921</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
         <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I73" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="J73" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
       <c r="K73" t="s">
-        <v>451</v>
+        <v>612</v>
       </c>
       <c r="O73" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G74" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I74" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="J74" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="K74" t="s">
-        <v>452</v>
+        <v>613</v>
       </c>
       <c r="O74" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1">
-        <v>971</v>
+        <v>923</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G75" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I75" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="J75" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="K75" t="s">
-        <v>453</v>
+        <v>614</v>
       </c>
       <c r="O75" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1">
-        <v>972</v>
+        <v>924</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G76" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I76" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="J76" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="K76" t="s">
-        <v>454</v>
+        <v>615</v>
       </c>
       <c r="O76" t="s">
-        <v>473</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1">
-        <v>973</v>
+        <v>925</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G77" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I77" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="J77" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="K77" t="s">
-        <v>455</v>
+        <v>616</v>
       </c>
       <c r="O77" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1">
-        <v>974</v>
+        <v>926</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G78" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I78" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="J78" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="K78" t="s">
-        <v>456</v>
+        <v>617</v>
       </c>
       <c r="O78" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1">
-        <v>975</v>
+        <v>927</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F79" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G79" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I79" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="J79" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="K79" t="s">
-        <v>457</v>
+        <v>618</v>
       </c>
       <c r="O79" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1">
-        <v>976</v>
+        <v>928</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G80" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I80" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="J80" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K80" t="s">
-        <v>458</v>
+        <v>619</v>
       </c>
       <c r="O80" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1">
-        <v>977</v>
+        <v>929</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G81" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I81" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="J81" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="K81" t="s">
-        <v>459</v>
+        <v>620</v>
       </c>
       <c r="O81" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1">
-        <v>978</v>
+        <v>930</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G82" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I82" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="J82" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="K82" t="s">
-        <v>460</v>
+        <v>621</v>
       </c>
       <c r="O82" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1">
-        <v>979</v>
+        <v>931</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G83" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I83" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="J83" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="K83" t="s">
-        <v>461</v>
+        <v>622</v>
       </c>
       <c r="O83" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1">
-        <v>980</v>
+        <v>932</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G84" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I84" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="J84" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K84" t="s">
-        <v>462</v>
+        <v>623</v>
       </c>
       <c r="O84" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1">
-        <v>981</v>
+        <v>933</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G85" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I85" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="J85" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="K85" t="s">
-        <v>463</v>
+        <v>624</v>
       </c>
       <c r="O85" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1">
-        <v>982</v>
+        <v>934</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G86" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I86" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="J86" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="K86" t="s">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="O86" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1">
-        <v>983</v>
+        <v>935</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G87" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I87" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="J87" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="K87" t="s">
-        <v>465</v>
+        <v>626</v>
       </c>
       <c r="O87" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G88" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="I88" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="J88" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="K88" t="s">
-        <v>466</v>
+        <v>627</v>
       </c>
       <c r="O88" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G89" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="I89" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="J89" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="K89" t="s">
-        <v>467</v>
+        <v>628</v>
       </c>
       <c r="O89" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G90" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="I90" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="J90" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="K90" t="s">
-        <v>468</v>
+        <v>629</v>
       </c>
       <c r="O90" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G91" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="I91" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="J91" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="K91" t="s">
-        <v>469</v>
+        <v>630</v>
       </c>
       <c r="O91" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G92" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="I92" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="J92" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="K92" t="s">
-        <v>470</v>
+        <v>631</v>
       </c>
       <c r="O92" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G93" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="I93" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="J93" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="K93" t="s">
-        <v>471</v>
+        <v>632</v>
       </c>
       <c r="O93" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1">
-        <v>1076</v>
+        <v>985</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E94" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G94" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I94" t="s">
-        <v>279</v>
+        <v>347</v>
+      </c>
+      <c r="J94" t="s">
+        <v>509</v>
+      </c>
+      <c r="K94" t="s">
+        <v>633</v>
+      </c>
+      <c r="O94" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1">
-        <v>1077</v>
+        <v>986</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E95" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G95" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I95" t="s">
-        <v>280</v>
+        <v>348</v>
+      </c>
+      <c r="J95" t="s">
+        <v>510</v>
+      </c>
+      <c r="K95" t="s">
+        <v>634</v>
+      </c>
+      <c r="O95" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1">
-        <v>1078</v>
+        <v>988</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E96" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G96" t="s">
+        <v>252</v>
+      </c>
+      <c r="I96" t="s">
+        <v>349</v>
+      </c>
+      <c r="J96" t="s">
+        <v>511</v>
+      </c>
+      <c r="K96" t="s">
+        <v>635</v>
+      </c>
+      <c r="O96" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>989</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s">
+        <v>182</v>
+      </c>
+      <c r="G97" t="s">
+        <v>252</v>
+      </c>
+      <c r="I97" t="s">
+        <v>350</v>
+      </c>
+      <c r="J97" t="s">
+        <v>512</v>
+      </c>
+      <c r="K97" t="s">
+        <v>636</v>
+      </c>
+      <c r="O97" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>994</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s">
+        <v>183</v>
+      </c>
+      <c r="G98" t="s">
+        <v>252</v>
+      </c>
+      <c r="I98" t="s">
+        <v>351</v>
+      </c>
+      <c r="J98" t="s">
+        <v>513</v>
+      </c>
+      <c r="K98" t="s">
+        <v>637</v>
+      </c>
+      <c r="O98" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>995</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s">
         <v>184</v>
       </c>
-      <c r="I96" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1">
-        <v>1079</v>
-      </c>
-      <c r="B97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" t="s">
-        <v>54</v>
-      </c>
-      <c r="E97" t="s">
-        <v>69</v>
-      </c>
-      <c r="F97" t="s">
-        <v>167</v>
-      </c>
-      <c r="G97" t="s">
-        <v>184</v>
-      </c>
-      <c r="I97" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1">
-        <v>1080</v>
-      </c>
-      <c r="B98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" t="s">
-        <v>54</v>
-      </c>
-      <c r="E98" t="s">
-        <v>69</v>
-      </c>
-      <c r="F98" t="s">
-        <v>168</v>
-      </c>
-      <c r="G98" t="s">
-        <v>184</v>
-      </c>
-      <c r="I98" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1">
-        <v>1092</v>
-      </c>
-      <c r="B99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" t="s">
-        <v>70</v>
-      </c>
-      <c r="F99" t="s">
-        <v>169</v>
-      </c>
       <c r="G99" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I99" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>352</v>
+      </c>
+      <c r="J99" t="s">
+        <v>514</v>
+      </c>
+      <c r="K99" t="s">
+        <v>638</v>
+      </c>
+      <c r="O99" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1">
-        <v>1093</v>
+        <v>996</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E100" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G100" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I100" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>353</v>
+      </c>
+      <c r="J100" t="s">
+        <v>515</v>
+      </c>
+      <c r="K100" t="s">
+        <v>639</v>
+      </c>
+      <c r="O100" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1">
-        <v>1094</v>
+        <v>997</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G101" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I101" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>354</v>
+      </c>
+      <c r="J101" t="s">
+        <v>516</v>
+      </c>
+      <c r="K101" t="s">
+        <v>640</v>
+      </c>
+      <c r="O101" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1">
-        <v>1095</v>
+        <v>998</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E102" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G102" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I102" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>355</v>
+      </c>
+      <c r="J102" t="s">
+        <v>517</v>
+      </c>
+      <c r="K102" t="s">
+        <v>641</v>
+      </c>
+      <c r="O102" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1">
-        <v>1096</v>
+        <v>999</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E103" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G103" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I103" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>356</v>
+      </c>
+      <c r="J103" t="s">
+        <v>518</v>
+      </c>
+      <c r="K103" t="s">
+        <v>642</v>
+      </c>
+      <c r="O103" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1">
-        <v>1097</v>
+        <v>1000</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G104" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I104" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>357</v>
+      </c>
+      <c r="J104" t="s">
+        <v>519</v>
+      </c>
+      <c r="K104" t="s">
+        <v>643</v>
+      </c>
+      <c r="O104" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1">
-        <v>1098</v>
+        <v>1001</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F105" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G105" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I105" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>358</v>
+      </c>
+      <c r="J105" t="s">
+        <v>520</v>
+      </c>
+      <c r="K105" t="s">
+        <v>644</v>
+      </c>
+      <c r="O105" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1">
-        <v>1101</v>
+        <v>1002</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F106" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G106" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I106" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>359</v>
+      </c>
+      <c r="J106" t="s">
+        <v>521</v>
+      </c>
+      <c r="K106" t="s">
+        <v>645</v>
+      </c>
+      <c r="O106" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1">
-        <v>1102</v>
+        <v>1003</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G107" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I107" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>360</v>
+      </c>
+      <c r="J107" t="s">
+        <v>522</v>
+      </c>
+      <c r="K107" t="s">
+        <v>646</v>
+      </c>
+      <c r="O107" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1">
-        <v>1103</v>
+        <v>1004</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F108" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G108" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I108" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J108" t="s">
+        <v>523</v>
+      </c>
+      <c r="K108" t="s">
+        <v>647</v>
+      </c>
+      <c r="O108" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1">
-        <v>1108</v>
+        <v>1005</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G109" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I109" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>362</v>
+      </c>
+      <c r="J109" t="s">
+        <v>524</v>
+      </c>
+      <c r="K109" t="s">
+        <v>648</v>
+      </c>
+      <c r="O109" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1">
-        <v>1109</v>
+        <v>1006</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G110" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="I110" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>363</v>
+      </c>
+      <c r="J110" t="s">
+        <v>525</v>
+      </c>
+      <c r="K110" t="s">
+        <v>649</v>
+      </c>
+      <c r="O110" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1">
-        <v>1110</v>
+        <v>1007</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D111" t="s">
         <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F111" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G111" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="I111" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>364</v>
+      </c>
+      <c r="J111" t="s">
+        <v>526</v>
+      </c>
+      <c r="K111" t="s">
+        <v>650</v>
+      </c>
+      <c r="O111" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1">
-        <v>1111</v>
+        <v>1008</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
         <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G112" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="I112" t="s">
-        <v>297</v>
+        <v>365</v>
+      </c>
+      <c r="J112" t="s">
+        <v>527</v>
+      </c>
+      <c r="K112" t="s">
+        <v>651</v>
+      </c>
+      <c r="O112" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" t="s">
+        <v>198</v>
+      </c>
+      <c r="G113" t="s">
+        <v>253</v>
+      </c>
+      <c r="I113" t="s">
+        <v>366</v>
+      </c>
+      <c r="J113" t="s">
+        <v>528</v>
+      </c>
+      <c r="K113" t="s">
+        <v>652</v>
+      </c>
+      <c r="O113" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G114" t="s">
+        <v>253</v>
+      </c>
+      <c r="I114" t="s">
+        <v>367</v>
+      </c>
+      <c r="J114" t="s">
+        <v>529</v>
+      </c>
+      <c r="K114" t="s">
+        <v>653</v>
+      </c>
+      <c r="O114" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>61</v>
+      </c>
+      <c r="E115" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G115" t="s">
+        <v>254</v>
+      </c>
+      <c r="I115" t="s">
+        <v>368</v>
+      </c>
+      <c r="J115" t="s">
+        <v>530</v>
+      </c>
+      <c r="K115" t="s">
+        <v>654</v>
+      </c>
+      <c r="O115" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" t="s">
+        <v>201</v>
+      </c>
+      <c r="G116" t="s">
+        <v>254</v>
+      </c>
+      <c r="I116" t="s">
+        <v>369</v>
+      </c>
+      <c r="J116" t="s">
+        <v>531</v>
+      </c>
+      <c r="K116" t="s">
+        <v>655</v>
+      </c>
+      <c r="O116" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" t="s">
+        <v>202</v>
+      </c>
+      <c r="G117" t="s">
+        <v>252</v>
+      </c>
+      <c r="I117" t="s">
+        <v>370</v>
+      </c>
+      <c r="J117" t="s">
+        <v>532</v>
+      </c>
+      <c r="K117" t="s">
+        <v>656</v>
+      </c>
+      <c r="O117" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" t="s">
+        <v>203</v>
+      </c>
+      <c r="G118" t="s">
+        <v>252</v>
+      </c>
+      <c r="I118" t="s">
+        <v>371</v>
+      </c>
+      <c r="J118" t="s">
+        <v>533</v>
+      </c>
+      <c r="K118" t="s">
+        <v>657</v>
+      </c>
+      <c r="O118" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>61</v>
+      </c>
+      <c r="E119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
+        <v>204</v>
+      </c>
+      <c r="G119" t="s">
+        <v>252</v>
+      </c>
+      <c r="I119" t="s">
+        <v>372</v>
+      </c>
+      <c r="J119" t="s">
+        <v>534</v>
+      </c>
+      <c r="K119" t="s">
+        <v>658</v>
+      </c>
+      <c r="O119" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>61</v>
+      </c>
+      <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
+        <v>205</v>
+      </c>
+      <c r="G120" t="s">
+        <v>252</v>
+      </c>
+      <c r="I120" t="s">
+        <v>373</v>
+      </c>
+      <c r="J120" t="s">
+        <v>535</v>
+      </c>
+      <c r="K120" t="s">
+        <v>659</v>
+      </c>
+      <c r="O120" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" t="s">
+        <v>82</v>
+      </c>
+      <c r="F121" t="s">
+        <v>206</v>
+      </c>
+      <c r="G121" t="s">
+        <v>252</v>
+      </c>
+      <c r="I121" t="s">
+        <v>374</v>
+      </c>
+      <c r="J121" t="s">
+        <v>536</v>
+      </c>
+      <c r="K121" t="s">
+        <v>660</v>
+      </c>
+      <c r="O121" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122" t="s">
+        <v>252</v>
+      </c>
+      <c r="I122" t="s">
+        <v>375</v>
+      </c>
+      <c r="J122" t="s">
+        <v>537</v>
+      </c>
+      <c r="O122" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" t="s">
+        <v>82</v>
+      </c>
+      <c r="F123" t="s">
+        <v>208</v>
+      </c>
+      <c r="G123" t="s">
+        <v>252</v>
+      </c>
+      <c r="I123" t="s">
+        <v>376</v>
+      </c>
+      <c r="J123" t="s">
+        <v>538</v>
+      </c>
+      <c r="K123" t="s">
+        <v>661</v>
+      </c>
+      <c r="O123" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" t="s">
+        <v>209</v>
+      </c>
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+      <c r="I124" t="s">
+        <v>377</v>
+      </c>
+      <c r="J124" t="s">
+        <v>539</v>
+      </c>
+      <c r="O124" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" t="s">
+        <v>83</v>
+      </c>
+      <c r="F125" t="s">
+        <v>210</v>
+      </c>
+      <c r="G125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I125" t="s">
+        <v>378</v>
+      </c>
+      <c r="J125" t="s">
+        <v>540</v>
+      </c>
+      <c r="K125" t="s">
+        <v>662</v>
+      </c>
+      <c r="O125" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" t="s">
+        <v>83</v>
+      </c>
+      <c r="F126" t="s">
+        <v>211</v>
+      </c>
+      <c r="G126" t="s">
+        <v>252</v>
+      </c>
+      <c r="I126" t="s">
+        <v>379</v>
+      </c>
+      <c r="J126" t="s">
+        <v>541</v>
+      </c>
+      <c r="O126" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127" t="s">
+        <v>83</v>
+      </c>
+      <c r="F127" t="s">
+        <v>212</v>
+      </c>
+      <c r="G127" t="s">
+        <v>252</v>
+      </c>
+      <c r="I127" t="s">
+        <v>380</v>
+      </c>
+      <c r="J127" t="s">
+        <v>542</v>
+      </c>
+      <c r="K127" t="s">
+        <v>663</v>
+      </c>
+      <c r="O127" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128" t="s">
+        <v>83</v>
+      </c>
+      <c r="F128" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" t="s">
+        <v>252</v>
+      </c>
+      <c r="I128" t="s">
+        <v>381</v>
+      </c>
+      <c r="J128" t="s">
+        <v>543</v>
+      </c>
+      <c r="O128" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" t="s">
+        <v>214</v>
+      </c>
+      <c r="G129" t="s">
+        <v>252</v>
+      </c>
+      <c r="I129" t="s">
+        <v>382</v>
+      </c>
+      <c r="J129" t="s">
+        <v>544</v>
+      </c>
+      <c r="K129" t="s">
+        <v>664</v>
+      </c>
+      <c r="O129" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>62</v>
+      </c>
+      <c r="E130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F130" t="s">
+        <v>215</v>
+      </c>
+      <c r="G130" t="s">
+        <v>252</v>
+      </c>
+      <c r="I130" t="s">
+        <v>383</v>
+      </c>
+      <c r="J130" t="s">
+        <v>545</v>
+      </c>
+      <c r="O130" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E131" t="s">
+        <v>82</v>
+      </c>
+      <c r="F131" t="s">
+        <v>216</v>
+      </c>
+      <c r="G131" t="s">
+        <v>252</v>
+      </c>
+      <c r="I131" t="s">
+        <v>384</v>
+      </c>
+      <c r="J131" t="s">
+        <v>546</v>
+      </c>
+      <c r="K131" t="s">
+        <v>665</v>
+      </c>
+      <c r="O131" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" t="s">
+        <v>217</v>
+      </c>
+      <c r="G132" t="s">
+        <v>252</v>
+      </c>
+      <c r="I132" t="s">
+        <v>385</v>
+      </c>
+      <c r="J132" t="s">
+        <v>547</v>
+      </c>
+      <c r="O132" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" t="s">
+        <v>62</v>
+      </c>
+      <c r="E133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G133" t="s">
+        <v>252</v>
+      </c>
+      <c r="I133" t="s">
+        <v>386</v>
+      </c>
+      <c r="J133" t="s">
+        <v>548</v>
+      </c>
+      <c r="O133" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" t="s">
+        <v>84</v>
+      </c>
+      <c r="F134" t="s">
+        <v>219</v>
+      </c>
+      <c r="G134" t="s">
+        <v>252</v>
+      </c>
+      <c r="I134" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" t="s">
+        <v>84</v>
+      </c>
+      <c r="F135" t="s">
+        <v>220</v>
+      </c>
+      <c r="G135" t="s">
+        <v>252</v>
+      </c>
+      <c r="I135" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" t="s">
+        <v>84</v>
+      </c>
+      <c r="F136" t="s">
+        <v>221</v>
+      </c>
+      <c r="G136" t="s">
+        <v>252</v>
+      </c>
+      <c r="I136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" t="s">
+        <v>84</v>
+      </c>
+      <c r="F137" t="s">
+        <v>222</v>
+      </c>
+      <c r="G137" t="s">
+        <v>252</v>
+      </c>
+      <c r="I137" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>65</v>
+      </c>
+      <c r="E138" t="s">
+        <v>65</v>
+      </c>
+      <c r="F138" t="s">
+        <v>223</v>
+      </c>
+      <c r="G138" t="s">
+        <v>252</v>
+      </c>
+      <c r="I138" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" t="s">
+        <v>65</v>
+      </c>
+      <c r="E139" t="s">
+        <v>65</v>
+      </c>
+      <c r="F139" t="s">
+        <v>224</v>
+      </c>
+      <c r="G139" t="s">
+        <v>252</v>
+      </c>
+      <c r="I139" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>65</v>
+      </c>
+      <c r="E140" t="s">
+        <v>65</v>
+      </c>
+      <c r="F140" t="s">
+        <v>225</v>
+      </c>
+      <c r="G140" t="s">
+        <v>252</v>
+      </c>
+      <c r="I140" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>65</v>
+      </c>
+      <c r="E141" t="s">
+        <v>65</v>
+      </c>
+      <c r="F141" t="s">
+        <v>226</v>
+      </c>
+      <c r="G141" t="s">
+        <v>252</v>
+      </c>
+      <c r="I141" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>65</v>
+      </c>
+      <c r="E142" t="s">
+        <v>65</v>
+      </c>
+      <c r="F142" t="s">
+        <v>227</v>
+      </c>
+      <c r="G142" t="s">
+        <v>252</v>
+      </c>
+      <c r="I142" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143" t="s">
+        <v>228</v>
+      </c>
+      <c r="G143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I143" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B144" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" t="s">
+        <v>85</v>
+      </c>
+      <c r="F144" t="s">
+        <v>229</v>
+      </c>
+      <c r="G144" t="s">
+        <v>252</v>
+      </c>
+      <c r="I144" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" t="s">
+        <v>85</v>
+      </c>
+      <c r="F145" t="s">
+        <v>230</v>
+      </c>
+      <c r="G145" t="s">
+        <v>252</v>
+      </c>
+      <c r="I145" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" t="s">
+        <v>85</v>
+      </c>
+      <c r="F146" t="s">
+        <v>231</v>
+      </c>
+      <c r="G146" t="s">
+        <v>252</v>
+      </c>
+      <c r="I146" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>1129</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" t="s">
+        <v>85</v>
+      </c>
+      <c r="F147" t="s">
+        <v>232</v>
+      </c>
+      <c r="G147" t="s">
+        <v>252</v>
+      </c>
+      <c r="I147" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D148" t="s">
+        <v>67</v>
+      </c>
+      <c r="E148" t="s">
+        <v>64</v>
+      </c>
+      <c r="F148" t="s">
+        <v>233</v>
+      </c>
+      <c r="G148" t="s">
+        <v>252</v>
+      </c>
+      <c r="I148" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D149" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149" t="s">
+        <v>64</v>
+      </c>
+      <c r="F149" t="s">
+        <v>234</v>
+      </c>
+      <c r="G149" t="s">
+        <v>252</v>
+      </c>
+      <c r="I149" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150" t="s">
+        <v>235</v>
+      </c>
+      <c r="G150" t="s">
+        <v>252</v>
+      </c>
+      <c r="I150" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B151" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" t="s">
+        <v>67</v>
+      </c>
+      <c r="E151" t="s">
+        <v>64</v>
+      </c>
+      <c r="F151" t="s">
+        <v>236</v>
+      </c>
+      <c r="G151" t="s">
+        <v>252</v>
+      </c>
+      <c r="I151" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" t="s">
+        <v>44</v>
+      </c>
+      <c r="D152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152" t="s">
+        <v>64</v>
+      </c>
+      <c r="F152" t="s">
+        <v>237</v>
+      </c>
+      <c r="G152" t="s">
+        <v>252</v>
+      </c>
+      <c r="I152" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" t="s">
+        <v>44</v>
+      </c>
+      <c r="D153" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" t="s">
+        <v>64</v>
+      </c>
+      <c r="F153" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" t="s">
+        <v>252</v>
+      </c>
+      <c r="I153" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B154" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" t="s">
+        <v>67</v>
+      </c>
+      <c r="E154" t="s">
+        <v>64</v>
+      </c>
+      <c r="F154" t="s">
+        <v>239</v>
+      </c>
+      <c r="G154" t="s">
+        <v>252</v>
+      </c>
+      <c r="I154" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B155" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>78</v>
+      </c>
+      <c r="F155" t="s">
+        <v>240</v>
+      </c>
+      <c r="G155" t="s">
+        <v>252</v>
+      </c>
+      <c r="I155" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" t="s">
+        <v>78</v>
+      </c>
+      <c r="F156" t="s">
+        <v>241</v>
+      </c>
+      <c r="G156" t="s">
+        <v>252</v>
+      </c>
+      <c r="I156" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" t="s">
+        <v>45</v>
+      </c>
+      <c r="D157" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F157" t="s">
+        <v>242</v>
+      </c>
+      <c r="G157" t="s">
+        <v>252</v>
+      </c>
+      <c r="I157" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B158" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" t="s">
+        <v>58</v>
+      </c>
+      <c r="E158" t="s">
+        <v>78</v>
+      </c>
+      <c r="F158" t="s">
+        <v>243</v>
+      </c>
+      <c r="G158" t="s">
+        <v>252</v>
+      </c>
+      <c r="I158" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" t="s">
+        <v>60</v>
+      </c>
+      <c r="E159" t="s">
+        <v>80</v>
+      </c>
+      <c r="F159" t="s">
+        <v>244</v>
+      </c>
+      <c r="G159" t="s">
+        <v>252</v>
+      </c>
+      <c r="I159" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160" t="s">
+        <v>60</v>
+      </c>
+      <c r="E160" t="s">
+        <v>80</v>
+      </c>
+      <c r="F160" t="s">
+        <v>245</v>
+      </c>
+      <c r="G160" t="s">
+        <v>252</v>
+      </c>
+      <c r="I160" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" t="s">
+        <v>60</v>
+      </c>
+      <c r="E161" t="s">
+        <v>80</v>
+      </c>
+      <c r="F161" t="s">
+        <v>246</v>
+      </c>
+      <c r="G161" t="s">
+        <v>252</v>
+      </c>
+      <c r="I161" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>1161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162" t="s">
+        <v>86</v>
+      </c>
+      <c r="F162" t="s">
+        <v>247</v>
+      </c>
+      <c r="G162" t="s">
+        <v>252</v>
+      </c>
+      <c r="I162" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163" t="s">
+        <v>86</v>
+      </c>
+      <c r="F163" t="s">
+        <v>248</v>
+      </c>
+      <c r="G163" t="s">
+        <v>252</v>
+      </c>
+      <c r="I163" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" t="s">
+        <v>68</v>
+      </c>
+      <c r="E164" t="s">
+        <v>86</v>
+      </c>
+      <c r="F164" t="s">
+        <v>249</v>
+      </c>
+      <c r="G164" t="s">
+        <v>252</v>
+      </c>
+      <c r="I164" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>1164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>37</v>
+      </c>
+      <c r="C165" t="s">
+        <v>44</v>
+      </c>
+      <c r="D165" t="s">
+        <v>68</v>
+      </c>
+      <c r="E165" t="s">
+        <v>86</v>
+      </c>
+      <c r="F165" t="s">
+        <v>250</v>
+      </c>
+      <c r="G165" t="s">
+        <v>252</v>
+      </c>
+      <c r="I165" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/download_file/val_download_list.xlsx
+++ b/Documents/download_file/val_download_list.xlsx
@@ -2008,7 +2008,7 @@
     <t>{'Assessing/Assessing_70bb44e7-5fa7-43ba-84b3-793e688f5b9c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502_DFU_Patient_004_Right_Plantar_1_VZ_Assessing.png', 'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502.tif'}</t>
+    <t>{'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502.tif', 'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502_DFU_Patient_004_Right_Plantar_1_VZ_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_f3318584-16e5-4bf6-a327-05ccc85ac0b6.tif'}</t>
